--- a/result_draw/harvest_action3.xlsx
+++ b/result_draw/harvest_action3.xlsx
@@ -14,111 +14,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.874015748031496</t>
-  </si>
-  <si>
-    <t>1.9451219512195121</t>
-  </si>
-  <si>
-    <t>1.9479553903345725</t>
-  </si>
-  <si>
-    <t>1.967241379310345</t>
-  </si>
-  <si>
-    <t>1.9730014025245441</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.2765957446808511</t>
+  </si>
+  <si>
+    <t>1.3333333333333333</t>
+  </si>
+  <si>
+    <t>1.3043478260869565</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.2222222222222223</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.2163009404388714</t>
+  </si>
+  <si>
+    <t>1.2880886426592797</t>
+  </si>
+  <si>
+    <t>1.0845070422535212</t>
+  </si>
+  <si>
+    <t>1.1265822784810127</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>1.9951807228915663</t>
-  </si>
-  <si>
-    <t>1.9876543209876543</t>
-  </si>
-  <si>
-    <t>1.991745283018868</t>
-  </si>
-  <si>
-    <t>1.9776161163961947</t>
-  </si>
-  <si>
-    <t>1.9725870202728548</t>
-  </si>
-  <si>
-    <t>1.5384615384615385</t>
-  </si>
-  <si>
-    <t>1.8948275862068966</t>
-  </si>
-  <si>
-    <t>1.8553259141494436</t>
-  </si>
-  <si>
-    <t>1.8327702702702702</t>
-  </si>
-  <si>
-    <t>1.7945587722357865</t>
-  </si>
-  <si>
-    <t>1.8451278988752862</t>
-  </si>
-  <si>
-    <t>1.607883817427386</t>
-  </si>
-  <si>
-    <t>1.5925925925925926</t>
-  </si>
-  <si>
-    <t>1.6433365292425695</t>
-  </si>
-  <si>
-    <t>1.430210325047801</t>
-  </si>
-  <si>
-    <t>1.5903206291591045</t>
-  </si>
-  <si>
-    <t>1.4615384615384615</t>
-  </si>
-  <si>
-    <t>1.4692556634304208</t>
-  </si>
-  <si>
-    <t>1.405128205128205</t>
-  </si>
-  <si>
-    <t>1.5703812316715542</t>
-  </si>
-  <si>
-    <t>1.3316790736145574</t>
-  </si>
-  <si>
-    <t>1.638558986539984</t>
-  </si>
-  <si>
-    <t>0.7777777777777778</t>
-  </si>
-  <si>
-    <t>1.6046511627906976</t>
-  </si>
-  <si>
-    <t>1.5819672131147542</t>
-  </si>
-  <si>
-    <t>1.6372950819672132</t>
-  </si>
-  <si>
-    <t>1.4286290322580646</t>
-  </si>
-  <si>
-    <t>1.715166461159063</t>
+    <t>1.4285714285714286</t>
+  </si>
+  <si>
+    <t>1.1476997578692494</t>
+  </si>
+  <si>
+    <t>1.350337584396099</t>
+  </si>
+  <si>
+    <t>1.0192307692307692</t>
+  </si>
+  <si>
+    <t>1.036101083032491</t>
+  </si>
+  <si>
+    <t>1.078125</t>
+  </si>
+  <si>
+    <t>1.135321100917431</t>
+  </si>
+  <si>
+    <t>1.4337425243940825</t>
+  </si>
+  <si>
+    <t>0.8277027027027027</t>
+  </si>
+  <si>
+    <t>0.7356495468277946</t>
+  </si>
+  <si>
+    <t>0.6509090909090909</t>
+  </si>
+  <si>
+    <t>0.9275423728813559</t>
+  </si>
+  <si>
+    <t>1.0959285004965242</t>
+  </si>
+  <si>
+    <t>0.6904522613065327</t>
+  </si>
+  <si>
+    <t>0.581953642384106</t>
+  </si>
+  <si>
+    <t>0.5072463768115942</t>
+  </si>
+  <si>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>0.7303525365434221</t>
+  </si>
+  <si>
+    <t>0.9029387755102041</t>
+  </si>
+  <si>
+    <t>0.7501844111138432</t>
+  </si>
+  <si>
+    <t>0.7190990990990991</t>
+  </si>
+  <si>
+    <t>0.564922480620155</t>
   </si>
 </sst>
 </file>
@@ -518,7 +515,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -538,42 +535,42 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/result_draw/harvest_action3.xlsx
+++ b/result_draw/harvest_action3.xlsx
@@ -14,108 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.2765957446808511</t>
-  </si>
-  <si>
-    <t>1.3333333333333333</t>
-  </si>
-  <si>
-    <t>1.3043478260869565</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.2222222222222223</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.2163009404388714</t>
-  </si>
-  <si>
-    <t>1.2880886426592797</t>
-  </si>
-  <si>
-    <t>1.0845070422535212</t>
-  </si>
-  <si>
-    <t>1.1265822784810127</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.4285714285714286</t>
-  </si>
-  <si>
-    <t>1.1476997578692494</t>
-  </si>
-  <si>
-    <t>1.350337584396099</t>
-  </si>
-  <si>
-    <t>1.0192307692307692</t>
-  </si>
-  <si>
-    <t>1.036101083032491</t>
-  </si>
-  <si>
-    <t>1.078125</t>
-  </si>
-  <si>
-    <t>1.135321100917431</t>
-  </si>
-  <si>
-    <t>1.4337425243940825</t>
-  </si>
-  <si>
-    <t>0.8277027027027027</t>
-  </si>
-  <si>
-    <t>0.7356495468277946</t>
-  </si>
-  <si>
-    <t>0.6509090909090909</t>
-  </si>
-  <si>
-    <t>0.9275423728813559</t>
-  </si>
-  <si>
-    <t>1.0959285004965242</t>
-  </si>
-  <si>
-    <t>0.6904522613065327</t>
-  </si>
-  <si>
-    <t>0.581953642384106</t>
-  </si>
-  <si>
-    <t>0.5072463768115942</t>
-  </si>
-  <si>
-    <t>1.375</t>
-  </si>
-  <si>
-    <t>0.7303525365434221</t>
-  </si>
-  <si>
-    <t>0.9029387755102041</t>
-  </si>
-  <si>
-    <t>0.7501844111138432</t>
-  </si>
-  <si>
-    <t>0.7190990990990991</t>
-  </si>
-  <si>
-    <t>0.564922480620155</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>0.8418079096045198</t>
+  </si>
+  <si>
+    <t>0.9553571428571429</t>
+  </si>
+  <si>
+    <t>1.1474201474201475</t>
+  </si>
+  <si>
+    <t>1.2613636363636365</t>
+  </si>
+  <si>
+    <t>1.3890462700661002</t>
+  </si>
+  <si>
+    <t>1.380586592178771</t>
+  </si>
+  <si>
+    <t>0.8447729672650475</t>
+  </si>
+  <si>
+    <t>0.9527235354573484</t>
+  </si>
+  <si>
+    <t>1.1594475831763968</t>
+  </si>
+  <si>
+    <t>1.2912457912457913</t>
+  </si>
+  <si>
+    <t>1.5882692863334296</t>
+  </si>
+  <si>
+    <t>1.6854818204932622</t>
+  </si>
+  <si>
+    <t>0.70703125</t>
+  </si>
+  <si>
+    <t>0.88296488946684</t>
+  </si>
+  <si>
+    <t>1.0550171928727727</t>
+  </si>
+  <si>
+    <t>1.2153652392947103</t>
+  </si>
+  <si>
+    <t>1.6132004512974802</t>
+  </si>
+  <si>
+    <t>1.7522827687776141</t>
+  </si>
+  <si>
+    <t>0.5703182284792492</t>
+  </si>
+  <si>
+    <t>0.816953316953317</t>
+  </si>
+  <si>
+    <t>1.0028503562945368</t>
+  </si>
+  <si>
+    <t>1.104428649535265</t>
+  </si>
+  <si>
+    <t>1.6328476344666307</t>
+  </si>
+  <si>
+    <t>1.756251488449631</t>
+  </si>
+  <si>
+    <t>0.46898199505077226</t>
+  </si>
+  <si>
+    <t>0.8797240551889622</t>
+  </si>
+  <si>
+    <t>1.018705763397371</t>
+  </si>
+  <si>
+    <t>1.1067545304777595</t>
+  </si>
+  <si>
+    <t>1.6185140073081608</t>
+  </si>
+  <si>
+    <t>1.800038270187524</t>
+  </si>
+  <si>
+    <t>0.31134470531461783</t>
+  </si>
+  <si>
+    <t>0.8696913196602445</t>
+  </si>
+  <si>
+    <t>1.099852848433887</t>
+  </si>
+  <si>
+    <t>1.1112419070041202</t>
+  </si>
+  <si>
+    <t>1.6384590055976291</t>
+  </si>
+  <si>
+    <t>1.7967750191963143</t>
   </si>
 </sst>
 </file>
@@ -515,62 +521,62 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/result_draw/harvest_action3.xlsx
+++ b/result_draw/harvest_action3.xlsx
@@ -16,112 +16,112 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>0.8418079096045198</t>
-  </si>
-  <si>
-    <t>0.9553571428571429</t>
-  </si>
-  <si>
-    <t>1.1474201474201475</t>
-  </si>
-  <si>
-    <t>1.2613636363636365</t>
-  </si>
-  <si>
-    <t>1.3890462700661002</t>
-  </si>
-  <si>
-    <t>1.380586592178771</t>
-  </si>
-  <si>
-    <t>0.8447729672650475</t>
-  </si>
-  <si>
-    <t>0.9527235354573484</t>
-  </si>
-  <si>
-    <t>1.1594475831763968</t>
-  </si>
-  <si>
-    <t>1.2912457912457913</t>
-  </si>
-  <si>
-    <t>1.5882692863334296</t>
-  </si>
-  <si>
-    <t>1.6854818204932622</t>
-  </si>
-  <si>
-    <t>0.70703125</t>
-  </si>
-  <si>
-    <t>0.88296488946684</t>
-  </si>
-  <si>
-    <t>1.0550171928727727</t>
-  </si>
-  <si>
-    <t>1.2153652392947103</t>
-  </si>
-  <si>
-    <t>1.6132004512974802</t>
-  </si>
-  <si>
-    <t>1.7522827687776141</t>
-  </si>
-  <si>
-    <t>0.5703182284792492</t>
-  </si>
-  <si>
-    <t>0.816953316953317</t>
-  </si>
-  <si>
-    <t>1.0028503562945368</t>
-  </si>
-  <si>
-    <t>1.104428649535265</t>
-  </si>
-  <si>
-    <t>1.6328476344666307</t>
-  </si>
-  <si>
-    <t>1.756251488449631</t>
-  </si>
-  <si>
-    <t>0.46898199505077226</t>
-  </si>
-  <si>
-    <t>0.8797240551889622</t>
-  </si>
-  <si>
-    <t>1.018705763397371</t>
-  </si>
-  <si>
-    <t>1.1067545304777595</t>
-  </si>
-  <si>
-    <t>1.6185140073081608</t>
-  </si>
-  <si>
-    <t>1.800038270187524</t>
-  </si>
-  <si>
-    <t>0.31134470531461783</t>
-  </si>
-  <si>
-    <t>0.8696913196602445</t>
-  </si>
-  <si>
-    <t>1.099852848433887</t>
-  </si>
-  <si>
-    <t>1.1112419070041202</t>
-  </si>
-  <si>
-    <t>1.6384590055976291</t>
-  </si>
-  <si>
-    <t>1.7967750191963143</t>
+    <t>0.33195020746887965</t>
+  </si>
+  <si>
+    <t>0.46975806451612906</t>
+  </si>
+  <si>
+    <t>0.4117647058823529</t>
+  </si>
+  <si>
+    <t>0.41884328358208955</t>
+  </si>
+  <si>
+    <t>0.4511082138200782</t>
+  </si>
+  <si>
+    <t>0.5135908440629471</t>
+  </si>
+  <si>
+    <t>0.6442857142857142</t>
+  </si>
+  <si>
+    <t>0.600956937799043</t>
+  </si>
+  <si>
+    <t>0.495321272613849</t>
+  </si>
+  <si>
+    <t>0.5488431876606684</t>
+  </si>
+  <si>
+    <t>0.6157575757575757</t>
+  </si>
+  <si>
+    <t>0.6627140974967062</t>
+  </si>
+  <si>
+    <t>0.6968992248062016</t>
+  </si>
+  <si>
+    <t>0.6550151975683891</t>
+  </si>
+  <si>
+    <t>0.6563275434243176</t>
+  </si>
+  <si>
+    <t>0.7267561983471075</t>
+  </si>
+  <si>
+    <t>0.7289940828402367</t>
+  </si>
+  <si>
+    <t>0.7841907151819323</t>
+  </si>
+  <si>
+    <t>0.8278560250391236</t>
+  </si>
+  <si>
+    <t>0.8103061986557132</t>
+  </si>
+  <si>
+    <t>0.766914191419142</t>
+  </si>
+  <si>
+    <t>0.8963317384370016</t>
+  </si>
+  <si>
+    <t>0.8605230386052304</t>
+  </si>
+  <si>
+    <t>0.869615832363213</t>
+  </si>
+  <si>
+    <t>0.9916286149162862</t>
+  </si>
+  <si>
+    <t>1.0735068912710566</t>
+  </si>
+  <si>
+    <t>0.984160066694456</t>
+  </si>
+  <si>
+    <t>1.0713530655391121</t>
+  </si>
+  <si>
+    <t>1.0594660194174756</t>
+  </si>
+  <si>
+    <t>1.0091623036649215</t>
+  </si>
+  <si>
+    <t>1.133013205282113</t>
+  </si>
+  <si>
+    <t>1.188173455978975</t>
+  </si>
+  <si>
+    <t>1.1790313549832028</t>
+  </si>
+  <si>
+    <t>1.4066857688634193</t>
+  </si>
+  <si>
+    <t>1.4241719930273098</t>
+  </si>
+  <si>
+    <t>1.3198529411764706</t>
   </si>
 </sst>
 </file>
